--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value512.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value512.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.049438817034656</v>
+        <v>1.231444597244263</v>
       </c>
       <c r="B1">
-        <v>1.807728034824089</v>
+        <v>2.489997386932373</v>
       </c>
       <c r="C1">
-        <v>2.659046546775225</v>
+        <v>4.148993968963623</v>
       </c>
       <c r="D1">
-        <v>2.714523333086934</v>
+        <v>2.768140554428101</v>
       </c>
       <c r="E1">
-        <v>0.8773545678747815</v>
+        <v>1.084386825561523</v>
       </c>
     </row>
   </sheetData>
